--- a/Data/Excels/Syncolon/Resumes/Experiment 67.xlsx
+++ b/Data/Excels/Syncolon/Resumes/Experiment 67.xlsx
@@ -446,202 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Improvement (%)</t>
+          <t>105-2-115-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Final Vs Mov (%)</t>
+          <t>105-2-115-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. movement</t>
+          <t>105-2-115-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. error</t>
+          <t>105-2-115-FarPoints Av. error</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. upToScale error</t>
+          <t>105-2-115-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints RMSE</t>
+          <t>105-2-115-FarPoints RMSE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints t C1C2 norm (mm)</t>
+          <t>105-2-115-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints parallax</t>
+          <t>105-2-115-FarPoints parallax</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints nMatches</t>
+          <t>105-2-115-FarPoints nMatches</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints nMPs</t>
+          <t>105-2-115-FarPoints nMPs</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Improvement (%)</t>
+          <t>125-3-140-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Final Vs Mov (%)</t>
+          <t>125-3-140-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. movement</t>
+          <t>125-3-140-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. error</t>
+          <t>125-3-140-FarPoints Av. error</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. upToScale error</t>
+          <t>125-3-140-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints RMSE</t>
+          <t>125-3-140-FarPoints RMSE</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints t C1C2 norm (mm)</t>
+          <t>125-3-140-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints parallax</t>
+          <t>125-3-140-FarPoints parallax</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints nMatches</t>
+          <t>125-3-140-FarPoints nMatches</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints nMPs</t>
+          <t>125-3-140-FarPoints nMPs</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Improvement (%)</t>
+          <t>140-3-150-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Final Vs Mov (%)</t>
+          <t>140-3-150-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. movement</t>
+          <t>140-3-150-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. error</t>
+          <t>140-3-150-FarPoints Av. error</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. upToScale error</t>
+          <t>140-3-150-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints RMSE</t>
+          <t>140-3-150-FarPoints RMSE</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints t C1C2 norm (mm)</t>
+          <t>140-3-150-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints parallax</t>
+          <t>140-3-150-FarPoints parallax</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints nMatches</t>
+          <t>140-3-150-FarPoints nMatches</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints nMPs</t>
+          <t>140-3-150-FarPoints nMPs</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Improvement (%)</t>
+          <t>150-2-160-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Final Vs Mov (%)</t>
+          <t>150-2-160-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. movement</t>
+          <t>150-2-160-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. error</t>
+          <t>150-2-160-FarPoints Av. error</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. upToScale error</t>
+          <t>150-2-160-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints RMSE</t>
+          <t>150-2-160-FarPoints RMSE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints t C1C2 norm (mm)</t>
+          <t>150-2-160-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints parallax</t>
+          <t>150-2-160-FarPoints parallax</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints nMatches</t>
+          <t>150-2-160-FarPoints nMatches</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints nMPs</t>
+          <t>150-2-160-FarPoints nMPs</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.71</v>
+        <v>-3.47</v>
       </c>
       <c r="D2" t="n">
-        <v>14201.94</v>
+        <v>14047.27</v>
       </c>
       <c r="E2" t="n">
         <v>1.41</v>
       </c>
       <c r="F2" t="n">
-        <v>200.29</v>
+        <v>197.39</v>
       </c>
       <c r="G2" t="n">
         <v>0.02</v>
       </c>
       <c r="H2" t="n">
-        <v>201.22</v>
+        <v>198.36</v>
       </c>
       <c r="I2" t="n">
         <v>1.77</v>
@@ -684,25 +684,25 @@
         <v>595</v>
       </c>
       <c r="L2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M2" t="n">
-        <v>73.90000000000001</v>
+        <v>76.33</v>
       </c>
       <c r="N2" t="n">
-        <v>650.8200000000001</v>
+        <v>547.73</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>6.15</v>
+        <v>5.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>8.039999999999999</v>
+        <v>5.96</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -711,28 +711,28 @@
         <v>2.15</v>
       </c>
       <c r="U2" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V2" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="W2" t="n">
-        <v>11.62</v>
+        <v>2.85</v>
       </c>
       <c r="X2" t="n">
-        <v>1428.67</v>
+        <v>1570.3</v>
       </c>
       <c r="Y2" t="n">
         <v>0.89</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.64</v>
+        <v>13.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.01</v>
+        <v>12.22</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.36</v>
+        <v>18.94</v>
       </c>
       <c r="AC2" t="n">
         <v>2.5</v>
@@ -747,22 +747,22 @@
         <v>476</v>
       </c>
       <c r="AG2" t="n">
-        <v>92.58</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>46.73</v>
+        <v>45.59</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AK2" t="n">
         <v>0.02</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="AM2" t="n">
         <v>5.3</v>
@@ -771,10 +771,10 @@
         <v>2.09</v>
       </c>
       <c r="AO2" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AP2" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82.91</v>
+        <v>75.04000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>449.67</v>
+        <v>661.4299999999999</v>
       </c>
       <c r="E3" t="n">
         <v>1.69</v>
       </c>
       <c r="F3" t="n">
-        <v>7.58</v>
+        <v>11.15</v>
       </c>
       <c r="G3" t="n">
-        <v>6.58</v>
+        <v>4.73</v>
       </c>
       <c r="H3" t="n">
-        <v>11.47</v>
+        <v>13.53</v>
       </c>
       <c r="I3" t="n">
         <v>1.77</v>
@@ -819,52 +819,52 @@
         <v>1190</v>
       </c>
       <c r="M3" t="n">
-        <v>58.74</v>
+        <v>68.53</v>
       </c>
       <c r="N3" t="n">
-        <v>855.55</v>
+        <v>631.97</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="P3" t="n">
-        <v>13.83</v>
+        <v>10.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.27</v>
+        <v>5.39</v>
       </c>
       <c r="R3" t="n">
-        <v>16.88</v>
+        <v>13.26</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U3" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V3" t="n">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W3" t="n">
-        <v>7.52</v>
+        <v>35.82</v>
       </c>
       <c r="X3" t="n">
-        <v>1486.59</v>
+        <v>1032.9</v>
       </c>
       <c r="Y3" t="n">
         <v>1.21</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.95</v>
+        <v>12.48</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.62</v>
+        <v>7.63</v>
       </c>
       <c r="AB3" t="n">
-        <v>22.95</v>
+        <v>15.82</v>
       </c>
       <c r="AC3" t="n">
         <v>2.5</v>
@@ -879,22 +879,22 @@
         <v>668</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.44</v>
+        <v>2.74</v>
       </c>
       <c r="AH3" t="n">
-        <v>675.61</v>
+        <v>668.8099999999999</v>
       </c>
       <c r="AI3" t="n">
         <v>1.31</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.859999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AK3" t="n">
-        <v>9.890000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="AL3" t="n">
-        <v>11.7</v>
+        <v>11.51</v>
       </c>
       <c r="AM3" t="n">
         <v>1.77</v>
@@ -903,10 +903,10 @@
         <v>2.27</v>
       </c>
       <c r="AO3" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AP3" t="n">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4">
@@ -921,22 +921,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34.91</v>
+        <v>37.17</v>
       </c>
       <c r="D4" t="n">
-        <v>439.24</v>
+        <v>424.94</v>
       </c>
       <c r="E4" t="n">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="F4" t="n">
-        <v>19.24</v>
+        <v>18.59</v>
       </c>
       <c r="G4" t="n">
-        <v>11.61</v>
+        <v>10.11</v>
       </c>
       <c r="H4" t="n">
-        <v>24.36</v>
+        <v>23.52</v>
       </c>
       <c r="I4" t="n">
         <v>3.97</v>
@@ -945,88 +945,88 @@
         <v>4.12</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.55</v>
+        <v>63.18</v>
       </c>
       <c r="N4" t="n">
-        <v>1909.18</v>
+        <v>655.55</v>
       </c>
       <c r="O4" t="n">
         <v>1.98</v>
       </c>
       <c r="P4" t="n">
-        <v>37.81</v>
+        <v>12.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>5.42</v>
       </c>
       <c r="R4" t="n">
-        <v>39.36</v>
+        <v>15.35</v>
       </c>
       <c r="S4" t="n">
         <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U4" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="V4" t="n">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="W4" t="n">
-        <v>2.27</v>
+        <v>0.79</v>
       </c>
       <c r="X4" t="n">
-        <v>1531.72</v>
+        <v>1557.42</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.22</v>
+        <v>17.53</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.54</v>
+        <v>14.96</v>
       </c>
       <c r="AB4" t="n">
-        <v>23.13</v>
+        <v>23.63</v>
       </c>
       <c r="AC4" t="n">
         <v>2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="AE4" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF4" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.08</v>
+        <v>51.92</v>
       </c>
       <c r="AH4" t="n">
-        <v>770.48</v>
+        <v>438.42</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.34</v>
+        <v>6.97</v>
       </c>
       <c r="AK4" t="n">
-        <v>12.55</v>
+        <v>6.62</v>
       </c>
       <c r="AL4" t="n">
-        <v>17.68</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AM4" t="n">
         <v>1.77</v>
@@ -1035,10 +1035,10 @@
         <v>2.59</v>
       </c>
       <c r="AO4" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AP4" t="n">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5">
@@ -1053,52 +1053,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.14</v>
+        <v>45.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1001.51</v>
+        <v>692.7</v>
       </c>
       <c r="E5" t="n">
         <v>1.81</v>
       </c>
       <c r="F5" t="n">
-        <v>18.14</v>
+        <v>12.55</v>
       </c>
       <c r="G5" t="n">
-        <v>7.15</v>
+        <v>5.47</v>
       </c>
       <c r="H5" t="n">
-        <v>20.95</v>
+        <v>15.29</v>
       </c>
       <c r="I5" t="n">
         <v>1.77</v>
       </c>
       <c r="J5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="K5" t="n">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="L5" t="n">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="M5" t="n">
-        <v>29.89</v>
+        <v>43.76</v>
       </c>
       <c r="N5" t="n">
-        <v>1029.44</v>
+        <v>824.35</v>
       </c>
       <c r="O5" t="n">
         <v>2.08</v>
       </c>
       <c r="P5" t="n">
-        <v>21.4</v>
+        <v>17.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.17</v>
+        <v>6.7</v>
       </c>
       <c r="R5" t="n">
-        <v>26.24</v>
+        <v>19.9</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
@@ -1107,28 +1107,28 @@
         <v>2.95</v>
       </c>
       <c r="U5" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="V5" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="W5" t="n">
-        <v>46.18</v>
+        <v>31.27</v>
       </c>
       <c r="X5" t="n">
-        <v>983.62</v>
+        <v>1254.71</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.02</v>
+        <v>17.87</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.2</v>
+        <v>12.72</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.51</v>
+        <v>21.66</v>
       </c>
       <c r="AC5" t="n">
         <v>2.5</v>
@@ -1137,40 +1137,40 @@
         <v>3.07</v>
       </c>
       <c r="AE5" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF5" t="n">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AG5" t="n">
-        <v>3.3</v>
+        <v>10.38</v>
       </c>
       <c r="AH5" t="n">
-        <v>858.01</v>
+        <v>802.11</v>
       </c>
       <c r="AI5" t="n">
         <v>1.99</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.05</v>
+        <v>15.93</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.95</v>
+        <v>10.26</v>
       </c>
       <c r="AL5" t="n">
-        <v>21.4</v>
+        <v>19.03</v>
       </c>
       <c r="AM5" t="n">
         <v>1.77</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="AO5" t="n">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AP5" t="n">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38.02</v>
+        <v>42.78</v>
       </c>
       <c r="D6" t="n">
-        <v>600.71</v>
+        <v>549.46</v>
       </c>
       <c r="E6" t="n">
         <v>1.94</v>
       </c>
       <c r="F6" t="n">
-        <v>11.65</v>
+        <v>10.66</v>
       </c>
       <c r="G6" t="n">
-        <v>5.91</v>
+        <v>8.85</v>
       </c>
       <c r="H6" t="n">
-        <v>14.23</v>
+        <v>13.44</v>
       </c>
       <c r="I6" t="n">
         <v>1.77</v>
@@ -1209,28 +1209,28 @@
         <v>2.11</v>
       </c>
       <c r="K6" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L6" t="n">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="M6" t="n">
-        <v>51.17</v>
+        <v>50.99</v>
       </c>
       <c r="N6" t="n">
-        <v>758.96</v>
+        <v>747.9400000000001</v>
       </c>
       <c r="O6" t="n">
         <v>2.29</v>
       </c>
       <c r="P6" t="n">
-        <v>17.41</v>
+        <v>17.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.22</v>
+        <v>10.24</v>
       </c>
       <c r="R6" t="n">
-        <v>21.2</v>
+        <v>20.99</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1239,28 +1239,28 @@
         <v>2.79</v>
       </c>
       <c r="U6" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="V6" t="n">
         <v>720</v>
       </c>
       <c r="W6" t="n">
-        <v>0.17</v>
+        <v>3.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1249.36</v>
+        <v>1268.01</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.54</v>
+        <v>15.22</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.46</v>
+        <v>10.79</v>
       </c>
       <c r="AB6" t="n">
-        <v>22.44</v>
+        <v>21.91</v>
       </c>
       <c r="AC6" t="n">
         <v>2.5</v>
@@ -1269,28 +1269,28 @@
         <v>2.85</v>
       </c>
       <c r="AE6" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF6" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AG6" t="n">
-        <v>28.85</v>
+        <v>18.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>635.8</v>
+        <v>730.78</v>
       </c>
       <c r="AI6" t="n">
         <v>1.97</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.53</v>
+        <v>14.4</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.08</v>
+        <v>9.35</v>
       </c>
       <c r="AL6" t="n">
-        <v>14.58</v>
+        <v>17.21</v>
       </c>
       <c r="AM6" t="n">
         <v>1.77</v>
@@ -1317,52 +1317,52 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34.89</v>
+        <v>4.82</v>
       </c>
       <c r="D7" t="n">
-        <v>743.92</v>
+        <v>1096.15</v>
       </c>
       <c r="E7" t="n">
         <v>2.08</v>
       </c>
       <c r="F7" t="n">
-        <v>15.51</v>
+        <v>22.85</v>
       </c>
       <c r="G7" t="n">
-        <v>9.960000000000001</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
-        <v>19.08</v>
+        <v>25.48</v>
       </c>
       <c r="I7" t="n">
         <v>1.77</v>
       </c>
       <c r="J7" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="K7" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L7" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="M7" t="n">
-        <v>41.98</v>
+        <v>40.4</v>
       </c>
       <c r="N7" t="n">
-        <v>691.17</v>
+        <v>707.84</v>
       </c>
       <c r="O7" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="P7" t="n">
-        <v>16.26</v>
+        <v>16.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.62</v>
+        <v>6.89</v>
       </c>
       <c r="R7" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="S7" t="n">
         <v>2.5</v>
@@ -1371,58 +1371,58 @@
         <v>3.51</v>
       </c>
       <c r="U7" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="V7" t="n">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="W7" t="n">
-        <v>10.06</v>
+        <v>40.73</v>
       </c>
       <c r="X7" t="n">
-        <v>1575.86</v>
+        <v>1008.99</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.7</v>
+        <v>16.81</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.78</v>
+        <v>4.66</v>
       </c>
       <c r="AB7" t="n">
-        <v>30.28</v>
+        <v>19.44</v>
       </c>
       <c r="AC7" t="n">
         <v>2.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="AE7" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF7" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.12</v>
+        <v>1.44</v>
       </c>
       <c r="AH7" t="n">
-        <v>891.52</v>
+        <v>882.1900000000001</v>
       </c>
       <c r="AI7" t="n">
         <v>2.52</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22.45</v>
+        <v>22.21</v>
       </c>
       <c r="AK7" t="n">
-        <v>11.97</v>
+        <v>11.65</v>
       </c>
       <c r="AL7" t="n">
-        <v>25.46</v>
+        <v>25.22</v>
       </c>
       <c r="AM7" t="n">
         <v>1.77</v>
@@ -1449,82 +1449,82 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37.04</v>
+        <v>48.88</v>
       </c>
       <c r="D8" t="n">
-        <v>838.9299999999999</v>
+        <v>684.35</v>
       </c>
       <c r="E8" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="F8" t="n">
-        <v>18.04</v>
+        <v>14.68</v>
       </c>
       <c r="G8" t="n">
-        <v>15.83</v>
+        <v>12.69</v>
       </c>
       <c r="H8" t="n">
-        <v>19.58</v>
+        <v>15.94</v>
       </c>
       <c r="I8" t="n">
         <v>1.77</v>
       </c>
       <c r="J8" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="K8" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L8" t="n">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="M8" t="n">
-        <v>39.76</v>
+        <v>38.22</v>
       </c>
       <c r="N8" t="n">
-        <v>635.96</v>
+        <v>653.05</v>
       </c>
       <c r="O8" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="P8" t="n">
-        <v>15.16</v>
+        <v>15.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.78</v>
+        <v>15.13</v>
       </c>
       <c r="R8" t="n">
-        <v>21.35</v>
+        <v>22.18</v>
       </c>
       <c r="S8" t="n">
         <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="U8" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="V8" t="n">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="W8" t="n">
-        <v>36.55</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>976.9299999999999</v>
+        <v>1517.33</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.72</v>
+        <v>30.77</v>
       </c>
       <c r="AA8" t="n">
-        <v>12.11</v>
+        <v>23.03</v>
       </c>
       <c r="AB8" t="n">
-        <v>26.44</v>
+        <v>36.31</v>
       </c>
       <c r="AC8" t="n">
         <v>2.5</v>
@@ -1539,22 +1539,22 @@
         <v>308</v>
       </c>
       <c r="AG8" t="n">
-        <v>-1.52</v>
+        <v>-1.22</v>
       </c>
       <c r="AH8" t="n">
-        <v>884.4</v>
+        <v>879.92</v>
       </c>
       <c r="AI8" t="n">
         <v>3.93</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34.78</v>
+        <v>34.61</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AL8" t="n">
-        <v>35.24</v>
+        <v>35.11</v>
       </c>
       <c r="AM8" t="n">
         <v>1.77</v>
